--- a/BDEAllocationSheet.xlsx
+++ b/BDEAllocationSheet.xlsx
@@ -1,117 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\UI_Excel_Store\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADFEF01-8D93-4D19-80B7-65F143EB93AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="13350" yWindow="3630" windowWidth="28755" windowHeight="16365" activeTab="1" xr2:uid="{875D520E-7715-4A53-800B-DE0A4D1BEB7E}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-48375" yWindow="4575" windowWidth="28755" windowHeight="16365" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="FSPAlloc" sheetId="1" r:id="rId1"/>
-    <sheet name="IFAlloc" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FSPAlloc" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IFAlloc" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BDEMaster" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
-  <si>
-    <t>FSPName</t>
-  </si>
-  <si>
-    <t>CurrentBDE</t>
-  </si>
-  <si>
-    <t>NewBDE</t>
-  </si>
-  <si>
-    <t>ChangeDate</t>
-  </si>
-  <si>
-    <t>fsp1</t>
-  </si>
-  <si>
-    <t>fsp2</t>
-  </si>
-  <si>
-    <t>fsp3</t>
-  </si>
-  <si>
-    <t>fsp4</t>
-  </si>
-  <si>
-    <t>fsp5</t>
-  </si>
-  <si>
-    <t>fsp6</t>
-  </si>
-  <si>
-    <t>james</t>
-  </si>
-  <si>
-    <t>jo</t>
-  </si>
-  <si>
-    <t>IFAName</t>
-  </si>
-  <si>
-    <t>karel</t>
-  </si>
-  <si>
-    <t>johan</t>
-  </si>
-  <si>
-    <t>sanna</t>
-  </si>
-  <si>
-    <t>joking</t>
-  </si>
-  <si>
-    <t>kooos</t>
-  </si>
-  <si>
-    <t>liz</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -130,46 +48,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{52C8E571-2662-40E2-8B54-9EC7DC80DFCA}" name="Table1" displayName="Table1" ref="A1:D7" totalsRowShown="0">
-  <autoFilter ref="A1:D7" xr:uid="{52C8E571-2662-40E2-8B54-9EC7DC80DFCA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D7" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="A1:D7"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4588B5DA-9ADB-4F88-885D-02AE5EF8332D}" name="FSPName"/>
-    <tableColumn id="2" xr3:uid="{3882193B-B3CE-4D79-A794-B0894C494C4F}" name="CurrentBDE"/>
-    <tableColumn id="3" xr3:uid="{195DA674-6F00-4A98-974F-EF8673178368}" name="NewBDE"/>
-    <tableColumn id="4" xr3:uid="{FC613B1C-9EA3-40F5-89AB-A386B2761FD9}" name="ChangeDate"/>
+    <tableColumn id="1" name="FSPName"/>
+    <tableColumn id="2" name="CurrentBDE"/>
+    <tableColumn id="3" name="NewBDE"/>
+    <tableColumn id="4" name="ChangeDate"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B6286D6D-CA6F-4CC4-81F2-5BF2DFF4679F}" name="Table13" displayName="Table13" ref="A1:E7" totalsRowShown="0">
-  <autoFilter ref="A1:E7" xr:uid="{52C8E571-2662-40E2-8B54-9EC7DC80DFCA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:E7" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="A1:E7"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8C42BB89-0FE7-4128-86C2-D09B64083632}" name="FSPName"/>
-    <tableColumn id="5" xr3:uid="{7B309CC4-1F44-42BE-8CA7-A7164654A86A}" name="IFAName"/>
-    <tableColumn id="2" xr3:uid="{A981F2E5-15CF-4A45-914C-8FFDFD7C3A98}" name="CurrentBDE"/>
-    <tableColumn id="3" xr3:uid="{09090C02-DE51-499D-B32D-9543F1AF7EC2}" name="NewBDE"/>
-    <tableColumn id="4" xr3:uid="{091F8F33-795F-421C-8A11-AE3BAB1B2580}" name="ChangeDate"/>
+    <tableColumn id="1" name="FSPName"/>
+    <tableColumn id="5" name="IFAName"/>
+    <tableColumn id="2" name="CurrentBDE"/>
+    <tableColumn id="3" name="NewBDE"/>
+    <tableColumn id="4" name="ChangeDate"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="BDEMasterLkp" displayName="BDEMasterLkp" ref="A1:A5" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="A1:A5"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="BDEName"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -491,194 +478,360 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CAA6D3E-1BD1-424D-9B73-D7E5795DEBCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col width="11.5703125" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="10.42578125" customWidth="1" min="3" max="3"/>
+    <col width="13.7109375" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>FSPName</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>CurrentBDE</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>NewBDE</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ChangeDate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>FSP666</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Lizdom</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Jan</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20 feb 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>fsp2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>james</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>fsp4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>jo</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>fsp5</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>jo</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>fsp6</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>jo</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>FSPzzz</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BrettJames</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>FlippieKoos</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20 feb 2025</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5160940-796C-475E-BCC7-A862A4DAACD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col width="11.5703125" customWidth="1" min="1" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="10.42578125" customWidth="1" min="4" max="4"/>
+    <col width="13.7109375" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>FSPName</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>IFAName</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>CurrentBDE</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>NewBDE</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ChangeDate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>fsp1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>karel</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>james</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>fsp2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>johan</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>james</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>fsp3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>sanna</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>james</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>fsp4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>joking</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jo</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>fsp5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>kooos</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>jo</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>fsp6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>liz</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>jo</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="11.85546875" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>BDEName</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Koos</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Brett</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/BDEAllocationSheet.xlsx
+++ b/BDEAllocationSheet.xlsx
@@ -1,138 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\UI_Excel_Store\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0679E4-9D9B-4203-A971-6C9586BB83F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="0" windowWidth="28755" windowHeight="16365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="120" yWindow="0" windowWidth="28755" windowHeight="16365" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="FSPAlloc" sheetId="1" r:id="rId1"/>
-    <sheet name="IFAlloc" sheetId="2" r:id="rId2"/>
-    <sheet name="BDEMaster" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FSPAlloc" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IFAlloc" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BDEMaster" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
-  <si>
-    <t>FSPName</t>
-  </si>
-  <si>
-    <t>CurrentBDE</t>
-  </si>
-  <si>
-    <t>NewBDE</t>
-  </si>
-  <si>
-    <t>ChangeDate</t>
-  </si>
-  <si>
-    <t>fsp1</t>
-  </si>
-  <si>
-    <t>jo</t>
-  </si>
-  <si>
-    <t>fsp4</t>
-  </si>
-  <si>
-    <t>louise</t>
-  </si>
-  <si>
-    <t>fsp5</t>
-  </si>
-  <si>
-    <t>abbi</t>
-  </si>
-  <si>
-    <t>fsp6</t>
-  </si>
-  <si>
-    <t>karryn</t>
-  </si>
-  <si>
-    <t>IFAName</t>
-  </si>
-  <si>
-    <t>karel</t>
-  </si>
-  <si>
-    <t>james</t>
-  </si>
-  <si>
-    <t>fsp2</t>
-  </si>
-  <si>
-    <t>johan</t>
-  </si>
-  <si>
-    <t>fsp3</t>
-  </si>
-  <si>
-    <t>sanna</t>
-  </si>
-  <si>
-    <t>joking</t>
-  </si>
-  <si>
-    <t>kooos</t>
-  </si>
-  <si>
-    <t>liz</t>
-  </si>
-  <si>
-    <t>BDEName</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Koos</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Brett</t>
-  </si>
-  <si>
-    <t>fsp7</t>
-  </si>
-  <si>
-    <t>fsp8</t>
-  </si>
-  <si>
-    <t>nic</t>
-  </si>
-  <si>
-    <t>hank</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -151,57 +48,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D7" totalsRowShown="0">
-  <autoFilter ref="A1:D7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D12" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="A1:D7"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="FSPName"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="CurrentBDE"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="NewBDE"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ChangeDate"/>
+    <tableColumn id="1" name="FSPName"/>
+    <tableColumn id="2" name="CurrentBDE"/>
+    <tableColumn id="3" name="NewBDE"/>
+    <tableColumn id="4" name="ChangeDate"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E7" totalsRowShown="0">
-  <autoFilter ref="A1:E7" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:E7" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="A1:E7"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="FSPName"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="IFAName"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="CurrentBDE"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="NewBDE"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ChangeDate"/>
+    <tableColumn id="1" name="FSPName"/>
+    <tableColumn id="5" name="IFAName"/>
+    <tableColumn id="2" name="CurrentBDE"/>
+    <tableColumn id="3" name="NewBDE"/>
+    <tableColumn id="4" name="ChangeDate"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="BDEMasterLkp" displayName="BDEMasterLkp" ref="A1:A5" totalsRowShown="0">
-  <autoFilter ref="A1:A5" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="BDEMasterLkp" displayName="BDEMasterLkp" ref="A1:A5" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="A1:A5"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="BDEName"/>
+    <tableColumn id="1" name="BDEName"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -523,258 +479,408 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col width="11.5703125" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="10.42578125" customWidth="1" min="3" max="3"/>
+    <col width="13.7109375" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>45658</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1">
-        <v>45661</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>FSPName</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>CurrentBDE</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>NewBDE</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ChangeDate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>fsp52</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>abbijoy</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>abbijoy</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>fsp5</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>abbi</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="n">
         <v>45662</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1">
-        <v>45663</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="1">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>fsp6</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>karryndsds</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>karryndsds</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>fsp7</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>nic</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="n">
         <v>45664</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="1">
-        <v>45665</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>fsp8</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>hankswart</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>hankswart</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-08 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>fsp10</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>reeg</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>reeg</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12 march 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>x a</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>a a</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>a a</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> a asas</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col width="11.5703125" customWidth="1" min="1" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="10.42578125" customWidth="1" min="4" max="4"/>
+    <col width="13.7109375" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>FSPName</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>IFAName</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>CurrentBDE</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>NewBDE</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ChangeDate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>fsp1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>karel</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>james</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>fsp2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>johan</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>james</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>fsp3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>sanna</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>james</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>fsp4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>joking</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jo</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>fsp5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>kooos</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>jo</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>fsp6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>liz</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>jo</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col width="11.85546875" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>26</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>BDEName</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Koos</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Brett</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/BDEAllocationSheet.xlsx
+++ b/BDEAllocationSheet.xlsx
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D12" headerRowCount="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D14" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="A1:D7"/>
   <tableColumns count="4">
     <tableColumn id="1" name="FSPName"/>
@@ -523,140 +523,147 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>fsp52</t>
+          <t>fsp5</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>abbijoy</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>abbijoy</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>2025-01-05 00:00:00</t>
-        </is>
+          <t>abbi</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>45662</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>fsp5</t>
+          <t>fsp6</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>abbi</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>45662</v>
+          <t>karryndsds</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>karryndsds</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 00:00:00</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>fsp6</t>
+          <t>fsp7</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>karryndsds</t>
+          <t>nicohnic</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>karryndsds</t>
+          <t>nicohnic</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>2025-01-06 00:00:00</t>
+          <t>2025-01-07 00:00:00</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>fsp7</t>
+          <t>fsp843</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>nic</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>45664</v>
+          <t>hank wiseass swart</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>hank wiseass swart</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-08 00:00:00</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>fsp8</t>
+          <t>fsp10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>hankswart</t>
+          <t>reeg kemp</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>hankswart</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>2025-01-08 00:00:00</t>
+          <t>reeg kemp</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14 march 2025</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>fsp10</t>
+          <t>vfd</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>reeg</t>
+          <t>vdf</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>reeg</t>
+          <t>vdf</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12 march 2025</t>
+          <t>vdf</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>x a</t>
+          <t>fsp48</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>a a</t>
+          <t>Kobus</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>a a</t>
+          <t>Kobus</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> a asas</t>
+          <t>13 may 2026</t>
         </is>
       </c>
     </row>
